--- a/MyMAS.xlsx
+++ b/MyMAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27930" windowHeight="12570" tabRatio="500"/>
+    <workbookView windowWidth="20400" windowHeight="8295" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>B</t>
   </si>
@@ -62,6 +62,9 @@
     <t>Padding Word</t>
   </si>
   <si>
+    <t>p</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
@@ -95,6 +98,12 @@
     <t>mok</t>
   </si>
   <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
     <t>f</t>
   </si>
   <si>
@@ -107,18 +116,12 @@
     <t>ihc</t>
   </si>
   <si>
-    <t>g</t>
-  </si>
-  <si>
     <t>X6</t>
   </si>
   <si>
     <t>cei</t>
   </si>
   <si>
-    <t>h</t>
-  </si>
-  <si>
     <t>X7</t>
   </si>
   <si>
@@ -162,9 +165,6 @@
   </si>
   <si>
     <t>o</t>
-  </si>
-  <si>
-    <t>p</t>
   </si>
 </sst>
 </file>
@@ -1203,13 +1203,14 @@
   <sheetPr/>
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5333333333333" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="11" width="11.5238095238095" style="1"/>
+    <col min="1" max="10" width="11.5238095238095" style="1"/>
+    <col min="11" max="11" width="11.4285714285714" style="1" customWidth="1"/>
     <col min="12" max="12" width="20" style="1" customWidth="1"/>
     <col min="13" max="1022" width="11.5238095238095" style="1"/>
     <col min="1023" max="1023" width="11.5238095238095" style="2"/>
@@ -1283,7 +1284,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" ht="21.75" spans="1:12">
+    <row r="4" ht="21.75" spans="1:24">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1310,13 +1311,43 @@
       <c r="L4" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="M4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>3</v>
+      </c>
+      <c r="S4" s="1">
+        <v>4</v>
+      </c>
+      <c r="T4" s="1">
+        <v>5</v>
+      </c>
+      <c r="U4" s="1">
+        <v>6</v>
+      </c>
+      <c r="V4" s="1">
+        <v>7</v>
+      </c>
+      <c r="W4" s="1">
+        <v>8</v>
+      </c>
+      <c r="X4" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" ht="21.75" spans="1:11">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4"/>
       <c r="E5" s="5">
@@ -1326,13 +1357,13 @@
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="11"/>
@@ -1342,7 +1373,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4"/>
       <c r="E6" s="5">
@@ -1352,21 +1383,21 @@
         <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" ht="21.75" spans="1:11">
+    <row r="7" ht="21.75" spans="1:24">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4"/>
       <c r="E7" s="5">
@@ -1376,23 +1407,50 @@
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="11"/>
+      <c r="P7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" ht="21.75" spans="1:11">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4"/>
       <c r="E8" s="5">
@@ -1402,13 +1460,13 @@
         <v>5</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="11"/>
@@ -1418,7 +1476,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4"/>
       <c r="E9" s="5">
@@ -1428,10 +1486,10 @@
         <v>6</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -1442,7 +1500,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4"/>
       <c r="E10" s="5">
@@ -1452,13 +1510,13 @@
         <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="11"/>
@@ -1482,7 +1540,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4"/>
       <c r="E11" s="5">
@@ -1492,10 +1550,10 @@
         <v>8</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1520,7 +1578,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="4"/>
       <c r="E12" s="5">
@@ -1530,13 +1588,13 @@
         <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="11"/>
@@ -1556,7 +1614,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="4"/>
     </row>
@@ -1565,7 +1623,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="4"/>
     </row>
@@ -1574,7 +1632,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4"/>
     </row>
@@ -1583,7 +1641,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="4"/>
     </row>
@@ -1592,7 +1650,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4"/>
     </row>
@@ -1601,7 +1659,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4"/>
     </row>
